--- a/frontend/ventas.xlsx
+++ b/frontend/ventas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,77 +601,377 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aceite mineral premium para motores a gasolina</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>148000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aceite mineral premium para motores a gasolina</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>814000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Aceite mineral premium para motores a gasolina</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3420000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2850000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Aceite mineral premium para motores a gasolina</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Filtro de aire de alto rendimiento para SUV</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>45958</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>570000</v>
+      <c r="E16" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>380000</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/ventas.xlsx
+++ b/frontend/ventas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,213 +476,213 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Venta de 4 Llantas Pirelli P1 con montaje y balanceo.</t>
+          <t>Aceite mineral premium para motores a gasolina</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45444</v>
+        <v>45973</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1250000</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Venta de aceite Shell y filtro Fram actualizado</t>
+          <t>Filtro de aire de alto rendimiento para SUV</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45445</v>
+        <v>45973</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>185000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Venta e instalación de Bateria MAC 12V.</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45446</v>
+        <v>45973</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>450000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Revisión y calibración de presión de neumáticos.</t>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45450</v>
+        <v>45973</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>50000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Venta de 4 Llantas Michelin Primacy 4, con alineación.</t>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45449</v>
+        <v>45973</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2000000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>285000</v>
+        <v>4940000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>285000</v>
+        <v>1520000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aceite mineral premium para motores a gasolina</t>
+          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>37000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -690,18 +690,18 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3420000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -751,17 +751,17 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Llanta radial de alto rendimiento, bajo ruido</t>
+          <t>Aceite mineral premium para motores a gasolina</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -771,37 +771,37 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2850000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aceite mineral premium para motores a gasolina</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45973</v>
+        <v>45972</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>74000</v>
+        <v>3420000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -811,22 +811,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Filtro de aire de alto rendimiento para SUV</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45973</v>
+        <v>45972</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>120000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45973</v>
+        <v>45972</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -851,127 +851,152 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+          <t>Llanta radial de alto rendimiento, bajo ruido</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45973</v>
+        <v>45972</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>380000</v>
+        <v>2850000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+          <t>Revisión y calibración de presión de neumáticos.</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45973</v>
+        <v>45450</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>380000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+          <t>Venta de 4 Llantas Michelin Primacy 4, con alineación.</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45973</v>
+        <v>45449</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>4940000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+          <t>Venta e instalación de Bateria MAC 12V.</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45973</v>
+        <v>45446</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1520000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Batería de libre mantenimiento para vehículos de alto consumo</t>
+          <t>Venta de aceite Shell y filtro Fram actualizado</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45973</v>
+        <v>45445</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>380000</v>
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Venta de 4 Llantas Pirelli P1 con montaje y balanceo.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1250000</v>
       </c>
     </row>
   </sheetData>
